--- a/data/trans_camb/P16-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.071525758097198</v>
+        <v>2.005799031002376</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.815582454702508</v>
+        <v>-3.113290976534432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.3378016997475</v>
+        <v>-2.654643128292067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.176189330965377</v>
+        <v>4.094927143492689</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.008418324343324</v>
+        <v>-1.393817035272698</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.290863603503722</v>
+        <v>-7.707528399654217</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.678999057747032</v>
+        <v>4.646925504418618</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9930665629239934</v>
+        <v>-0.3313862150666545</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.730250435901014</v>
+        <v>-2.788459302922369</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.39964980697584</v>
+        <v>13.19605592870337</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.051394877611971</v>
+        <v>8.19808367222671</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.28064452756228</v>
+        <v>14.1965836773978</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.24863877525328</v>
+        <v>16.70401248491568</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.64890347544526</v>
+        <v>11.34467983737629</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.122563412521025</v>
+        <v>8.98882604278992</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.3605127522494</v>
+        <v>13.49689741577189</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.055840804283635</v>
+        <v>7.931862505566839</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.642937622143391</v>
+        <v>8.979761426031981</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.09440891461083338</v>
+        <v>0.08741285809863285</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1272909369939917</v>
+        <v>-0.147366058868387</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1169762383000473</v>
+        <v>-0.1183972710286823</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1000741704935318</v>
+        <v>0.09847769570589868</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05322192282847235</v>
+        <v>-0.04125539302564196</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1853699363503855</v>
+        <v>-0.1932095986387783</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1520927838059245</v>
+        <v>0.1567454331044869</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03048333375905333</v>
+        <v>-0.007790852764145901</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.0924200562219154</v>
+        <v>-0.09287416895011046</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7635512876638706</v>
+        <v>0.7435513432004043</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4658071276025725</v>
+        <v>0.4780207475491928</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7365935215891258</v>
+        <v>0.7726987901226361</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4969560380410846</v>
+        <v>0.4722571858276266</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3300394236645295</v>
+        <v>0.3195042328917327</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2285916788610816</v>
+        <v>0.2532225419408953</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.498771028855905</v>
+        <v>0.5150731142190681</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3020001973961495</v>
+        <v>0.3010550109476116</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3087994663785291</v>
+        <v>0.327823558783269</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.150453284881918</v>
+        <v>8.165593348404061</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.914553362232196</v>
+        <v>7.381744437743907</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.512481376644027</v>
+        <v>6.439356610145039</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.630705569098483</v>
+        <v>8.976646057242196</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.008060216741759</v>
+        <v>-1.65220482049536</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.19038106631845</v>
+        <v>-6.116955536672789</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>10.2587700801148</v>
+        <v>10.15645036501415</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>5.108830329065166</v>
+        <v>4.911703838330018</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.283635430699431</v>
+        <v>2.945814967176144</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.41012778735204</v>
+        <v>17.40806554230831</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.21040911424345</v>
+        <v>17.13077610510545</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.17809879569526</v>
+        <v>19.2399669084198</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.18091860030124</v>
+        <v>20.38807192955056</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.60689652281328</v>
+        <v>9.584171261872035</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.206249481781013</v>
+        <v>6.430784523075625</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.49183584415044</v>
+        <v>17.58777351274749</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.68337691943235</v>
+        <v>12.90271026573949</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.50578528930906</v>
+        <v>11.82200133140466</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.358600621533903</v>
+        <v>0.3682576008418151</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3400885794147737</v>
+        <v>0.3207905345067141</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3065407699431724</v>
+        <v>0.2850190621313645</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.185675954129238</v>
+        <v>0.1914268184849232</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04295381719367722</v>
+        <v>-0.0359645979007012</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1328479864096473</v>
+        <v>-0.1346182155190744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3130517239214773</v>
+        <v>0.3170601695357543</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1574353429457195</v>
+        <v>0.1446391300521402</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1018246364284883</v>
+        <v>0.09128099234429551</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.987325171514185</v>
+        <v>0.9636760236584451</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9470489477766622</v>
+        <v>0.9372312678489894</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.038327928271684</v>
+        <v>1.035199718041404</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4918939394271885</v>
+        <v>0.5035161157719888</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2429719541540682</v>
+        <v>0.2298736873146259</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1445491487980608</v>
+        <v>0.1576303647169937</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5984879794067989</v>
+        <v>0.6021585456207813</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4345814366511611</v>
+        <v>0.4441507574810878</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4314801907914068</v>
+        <v>0.4067337072612979</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.640604644490246</v>
+        <v>4.264601842683921</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.108229514624358</v>
+        <v>4.169142461582206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.612471941423375</v>
+        <v>4.697235344504437</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10.56886296306942</v>
+        <v>10.55543706981298</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9136893145099819</v>
+        <v>0.6294535075683503</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.01914664837832891</v>
+        <v>-0.9189850779104813</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.61895954904708</v>
+        <v>8.525802836587786</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.571220961070499</v>
+        <v>3.56702244562017</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.088815188674362</v>
+        <v>3.398640510316347</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.02653891965407</v>
+        <v>14.71469465179844</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.17923670252709</v>
+        <v>14.28470038715994</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.04391533409134</v>
+        <v>15.42028431751997</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.45786474990235</v>
+        <v>21.36665731822152</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.14686988510004</v>
+        <v>11.43762221209993</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.03514734463775</v>
+        <v>10.02231259953562</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>16.48198390049262</v>
+        <v>16.3976593967903</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.06345554365386</v>
+        <v>11.41022917047374</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.72885786033697</v>
+        <v>11.03541490915037</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1554161051622985</v>
+        <v>0.1465567146224878</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1375396169699139</v>
+        <v>0.1310477930906611</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1554360624154155</v>
+        <v>0.1616994834355817</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2230482021427704</v>
+        <v>0.2174418986858828</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02085266345772042</v>
+        <v>0.01201082804250289</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001348092487937997</v>
+        <v>-0.01968187232402932</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2211526513242803</v>
+        <v>0.2156931210817725</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.09152858713792564</v>
+        <v>0.09226262320717202</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.07875670879001354</v>
+        <v>0.08758651008298479</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6161509124057539</v>
+        <v>0.5884497182516625</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5560780963854409</v>
+        <v>0.562266301756941</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6367419078038165</v>
+        <v>0.6079756944986412</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5050261084682214</v>
+        <v>0.5077494531380352</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2888665607631756</v>
+        <v>0.274752728113442</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2423344918613522</v>
+        <v>0.2394884281812908</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4740178827967684</v>
+        <v>0.4634960361894442</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3206440274090374</v>
+        <v>0.3277414759940016</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3103906731943448</v>
+        <v>0.3160453461064022</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>11.86435099798151</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10.58585058454678</v>
+        <v>10.58585058454677</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>12.58377613704896</v>
@@ -1297,7 +1297,7 @@
         <v>4.355361249784351</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.284330546650117</v>
+        <v>4.284330546650105</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>10.20641361290747</v>
@@ -1306,7 +1306,7 @@
         <v>8.149583048144732</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.598038589934536</v>
+        <v>7.598038589934547</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.475402772935294</v>
+        <v>1.581699350665626</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.161028587438487</v>
+        <v>6.184354896636865</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.289743126066874</v>
+        <v>4.420662838296785</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.684106021162166</v>
+        <v>6.76347383675192</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.321590182231011</v>
+        <v>-1.646053711541933</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.6757376297529814</v>
+        <v>-1.13699428229036</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.750149142562987</v>
+        <v>5.671472811720381</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.646327146717756</v>
+        <v>4.046581970326014</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.357080669021477</v>
+        <v>3.707808049139501</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.75521725818271</v>
+        <v>13.60552526558856</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.72183171461586</v>
+        <v>18.47124097777305</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.15828149389766</v>
+        <v>16.58051250506649</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.4780777659861</v>
+        <v>18.66895931357143</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.7325200150999</v>
+        <v>9.952625083488066</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.326425956242314</v>
+        <v>8.953579412677518</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>14.4668432594666</v>
+        <v>14.46763090139029</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.39078202267108</v>
+        <v>12.2860842969352</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.68207950946331</v>
+        <v>11.67532129294586</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2985588398718786</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2663861908769417</v>
+        <v>0.2663861908769414</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2220056119190236</v>
@@ -1402,7 +1402,7 @@
         <v>0.07683819458135487</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07558505605261653</v>
+        <v>0.07558505605261634</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2118313313733087</v>
@@ -1411,7 +1411,7 @@
         <v>0.1691423738738793</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1576952190430696</v>
+        <v>0.1576952190430698</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03462812200570395</v>
+        <v>0.03867083520686108</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1371141592975876</v>
+        <v>0.1461244086353991</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.09940704352321687</v>
+        <v>0.1048790417914147</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1098695460106352</v>
+        <v>0.1138156904572449</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02377250542246328</v>
+        <v>-0.02658087940849014</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.01138017023671956</v>
+        <v>-0.01977220033169395</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1109172069652374</v>
+        <v>0.111748170401966</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.07309689388950019</v>
+        <v>0.08075981521132351</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.06725238818241053</v>
+        <v>0.07234896347365349</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3843342579735451</v>
+        <v>0.3789998485080355</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.521475463581256</v>
+        <v>0.5230004827396949</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4382418581794256</v>
+        <v>0.4634311821150716</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3451510088475369</v>
+        <v>0.3493891359585109</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2020270930314046</v>
+        <v>0.1834828609180442</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.176427619670866</v>
+        <v>0.1672536973679861</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3140444394597685</v>
+        <v>0.3150861525919221</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2723307060661222</v>
+        <v>0.2681030839555237</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2563582917791086</v>
+        <v>0.2535702934570135</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.931825809570028</v>
+        <v>-4.416418724223386</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.22037690253902</v>
+        <v>-13.98552782754408</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.667723463631614</v>
+        <v>-9.16562991651544</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.501844347062851</v>
+        <v>2.085525905492391</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6057634743645363</v>
+        <v>-1.755370913905017</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.833648903854114</v>
+        <v>-4.854079416578692</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8963217862713353</v>
+        <v>1.16446367207336</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.914345241441575</v>
+        <v>-5.679622893886923</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.321453777532006</v>
+        <v>-5.882289637981582</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.459405901934186</v>
+        <v>8.129030213582441</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.9647644205543574</v>
+        <v>-1.529688596459924</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.325485709338065</v>
+        <v>2.242577313945702</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.22379890880897</v>
+        <v>13.1653483225882</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.56516091833957</v>
+        <v>10.07795001708587</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.058181304509486</v>
+        <v>5.136160409912057</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.347588851902227</v>
+        <v>9.455298987054245</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.926016431741451</v>
+        <v>2.641227448756938</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.07261552105766</v>
+        <v>1.727386951909279</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05111265896560162</v>
+        <v>-0.05673920964916818</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1857137704493348</v>
+        <v>-0.1852618634096131</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1253807656529627</v>
+        <v>-0.1210993255752811</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.02165677585047032</v>
+        <v>0.02622253233167528</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.007652264296954094</v>
+        <v>-0.0216829946591065</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.06247892375601612</v>
+        <v>-0.06230687967089008</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01145927364536079</v>
+        <v>0.0141980762099073</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.07851988121961873</v>
+        <v>-0.07461685157534154</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.06943762383496684</v>
+        <v>-0.07634359597789804</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1224503273934352</v>
+        <v>0.1184050504060134</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.01471949423717529</v>
+        <v>-0.02209977908944462</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.03393257832161512</v>
+        <v>0.03126119055264052</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1854832099534059</v>
+        <v>0.1835354895519922</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1475660995184573</v>
+        <v>0.1404473587930041</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07023343889691765</v>
+        <v>0.07207144116077094</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1305757641248043</v>
+        <v>0.1311194005577611</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.04020097894830572</v>
+        <v>0.03716714182111797</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.02890100733283858</v>
+        <v>0.02420699981321789</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>1.489276376251847</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-6.894923042847423</v>
+        <v>-6.894923042847445</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>5.283431848695308</v>
@@ -1734,7 +1734,7 @@
         <v>2.947296460828064</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-5.094161015825138</v>
+        <v>-5.094161015825128</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.377562630805614</v>
+        <v>3.7696550191528</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.2894504354841</v>
+        <v>-1.351057989156262</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.349059350494109</v>
+        <v>-8.287090233320194</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.512632345872042</v>
+        <v>-2.564648403417585</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.780399537895654</v>
+        <v>-2.80381587297157</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.72025381338069</v>
+        <v>-10.698545715547</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.646302764420986</v>
+        <v>1.100674828452975</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.6708717607335134</v>
+        <v>-0.7403415025273347</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-8.426425107765104</v>
+        <v>-8.627731776877805</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>15.03610429673409</v>
+        <v>15.3814851132562</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.13071725716812</v>
+        <v>10.84436550278747</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.416369797305646</v>
+        <v>3.144115398995684</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.91810469056393</v>
+        <v>5.975974277988102</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.137527191788432</v>
+        <v>5.380640956789787</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-2.70011528447335</v>
+        <v>-2.630901838374914</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.95805619057832</v>
+        <v>8.623411446638377</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.963763718192137</v>
+        <v>6.449179611556533</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.374517855655788</v>
+        <v>-1.653262588541232</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.0165083438276348</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.07642890337310959</v>
+        <v>-0.07642890337310984</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.06208076628223895</v>
@@ -1839,7 +1839,7 @@
         <v>0.03463098001241746</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.05985681815989129</v>
+        <v>-0.05985681815989117</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.04096385697975959</v>
+        <v>0.04493548233010979</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.01500924334643011</v>
+        <v>-0.0170301967967222</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1009518277369937</v>
+        <v>-0.1002573144539278</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.02722087387579016</v>
+        <v>-0.02793356689893975</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.0303734632312153</v>
+        <v>-0.02993542720565422</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1158427428061189</v>
+        <v>-0.1161024916290194</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0189576556273338</v>
+        <v>0.01268633119769011</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.007207510220549554</v>
+        <v>-0.008754084959310467</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.09799269536149649</v>
+        <v>-0.0992165683304955</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1975128595523815</v>
+        <v>0.2076545124167722</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.149037549257985</v>
+        <v>0.144490364236417</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.04512282326370101</v>
+        <v>0.04182826070626709</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.06791880809070926</v>
+        <v>0.06831599956599799</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.07008497374911857</v>
+        <v>0.0613363694549187</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.03126070704094329</v>
+        <v>-0.03152194571471686</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1077973074734219</v>
+        <v>0.1025921645893777</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.08488003459907299</v>
+        <v>0.0775232983507651</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.01680087649005153</v>
+        <v>-0.02018350271643163</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>1.868728900088612</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-1.889018471558712</v>
+        <v>-1.889018471558734</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>3.744714812760142</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.9414481588078755</v>
+        <v>-0.9893838248075197</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.323020389809771</v>
+        <v>-3.535660530699458</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-8.269370559240132</v>
+        <v>-8.381103287481613</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.3452005660931103</v>
+        <v>0.3416086780366275</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.80933404845507</v>
+        <v>-1.862322383524825</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.681210560209577</v>
+        <v>-5.501306410922713</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.9400656782150074</v>
+        <v>0.5429549071918217</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.119974879877701</v>
+        <v>-1.290515387961722</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-5.596259008480555</v>
+        <v>-5.339698465744062</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.325585565618645</v>
+        <v>9.149678646203293</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.254019891743978</v>
+        <v>6.921500980824605</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.245323851391944</v>
+        <v>2.578546189476634</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.91718614651271</v>
+        <v>7.294127169146791</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.798137712194137</v>
+        <v>5.783533788430385</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.507320156005689</v>
+        <v>1.65834393792996</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.549890431497101</v>
+        <v>6.779396606379204</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.764309866877444</v>
+        <v>4.96416061512445</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.731600765929026</v>
+        <v>0.6820295359603117</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.0200245544534319</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.02024196941860986</v>
+        <v>-0.0202419694186101</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.04079380838158067</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.009844805787573584</v>
+        <v>-0.01065043856622848</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.03514872589812212</v>
+        <v>-0.03851089678403783</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.08919380037396765</v>
+        <v>-0.08968799476814181</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.003670242817119164</v>
+        <v>0.003829052466017694</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.01913047975774474</v>
+        <v>-0.0195628610031355</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.05918390625139874</v>
+        <v>-0.05742969200137089</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01021330793294451</v>
+        <v>0.00629127603934609</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01201557494776065</v>
+        <v>-0.01369694524810464</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.06035396365050399</v>
+        <v>-0.05706138884790263</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1098930671197611</v>
+        <v>0.10805379402069</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.0871027980408145</v>
+        <v>0.08124097586924371</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.02549396341007276</v>
+        <v>0.03038415456468037</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.07619242682069007</v>
+        <v>0.08115444260553752</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.0634242443220517</v>
+        <v>0.0637318128078453</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01668434697472889</v>
+        <v>0.01832285929869016</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.07301097108256874</v>
+        <v>0.07636190120601499</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.05298414181890982</v>
+        <v>0.05544092801994523</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.00790829272581498</v>
+        <v>0.007577452797138015</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>7.500101489645679</v>
+        <v>7.329105624392446</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>6.834626463519265</v>
+        <v>6.894355379805331</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>9.073178799686099</v>
+        <v>9.160985579409846</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>9.362120515709845</v>
+        <v>9.231536111649405</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>4.230333492444148</v>
+        <v>4.076273367638859</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2.558055826741622</v>
+        <v>2.560327246027594</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>8.994865906488421</v>
+        <v>8.951571583128752</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>5.998266010576126</v>
+        <v>5.896313682113565</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>6.477634912541996</v>
+        <v>6.444267469888326</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>12.48714151628475</v>
+        <v>12.09512740543475</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>11.57142669428988</v>
+        <v>11.69503825749717</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>14.19416873720078</v>
+        <v>14.39131693830822</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>13.8490073335992</v>
+        <v>13.8916077099536</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>8.846391886908876</v>
+        <v>8.65520082676662</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.075966371849114</v>
+        <v>6.927405833371093</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>12.45105357475519</v>
+        <v>12.51590819142491</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>9.490249214621878</v>
+        <v>9.609412364471121</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>9.904982485028128</v>
+        <v>9.936114870956787</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1786188981653326</v>
+        <v>0.176571500498674</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.164618513874365</v>
+        <v>0.1666889776798483</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.2154152624719787</v>
+        <v>0.2214905069617581</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1565484266171998</v>
+        <v>0.1548792697059758</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.06998175387042661</v>
+        <v>0.0678323869914399</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.04286586841082676</v>
+        <v>0.04236321552080114</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1773254834147076</v>
+        <v>0.1767674634364037</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1182715747557283</v>
+        <v>0.1161247941105307</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.1280374000778038</v>
+        <v>0.1269209048511147</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3195526898118533</v>
+        <v>0.3094861344521156</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2954381472803777</v>
+        <v>0.2986005736496697</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.358961707463241</v>
+        <v>0.3626303850690663</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2447394494714573</v>
+        <v>0.241922525890518</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1540299236318339</v>
+        <v>0.1503901239504668</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1226157926884951</v>
+        <v>0.1212309180102659</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.256063363303686</v>
+        <v>0.2560936754475718</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1937732740728787</v>
+        <v>0.1968636432203328</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2028034841343971</v>
+        <v>0.203983840899566</v>
       </c>
     </row>
     <row r="52">
